--- a/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
+++ b/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/2024_structure/github/data/sampling/dartmouth_cfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32605D69-B3A6-2A45-8E82-CDA063AEA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FC212-76D3-DC44-8EF9-9598EF6077D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="-21520" windowWidth="28040" windowHeight="17440" xr2:uid="{45584F9A-9778-5B4B-A064-AEADAAAF97A5}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{45584F9A-9778-5B4B-A064-AEADAAAF97A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +480,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +527,7 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>406</v>
       </c>
       <c r="E2">
@@ -560,7 +559,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>406</v>
       </c>
       <c r="E3">
@@ -592,7 +591,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>406</v>
       </c>
       <c r="E4">
@@ -727,7 +726,7 @@
         <v>127.68</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -759,7 +758,7 @@
         <v>127.68</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>32</v>
@@ -791,7 +790,7 @@
         <v>127.68</v>
       </c>
       <c r="F10">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>32</v>
@@ -822,19 +821,19 @@
       <c r="E11">
         <v>128.61000000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>135</v>
       </c>
-      <c r="G11" s="2">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>-32</v>
       </c>
     </row>
@@ -854,19 +853,19 @@
       <c r="E12">
         <v>128.61000000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>105</v>
       </c>
-      <c r="G12" s="2">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-34</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>-65</v>
       </c>
     </row>
@@ -886,19 +885,19 @@
       <c r="E13">
         <v>128.61000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>88</v>
       </c>
-      <c r="G13" s="2">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>-67</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>-104</v>
       </c>
     </row>

--- a/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
+++ b/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/2024_structure/github/data/sampling/dartmouth_cfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FC212-76D3-DC44-8EF9-9598EF6077D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D158A-494A-3D40-A242-CA1D5EDC554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{45584F9A-9778-5B4B-A064-AEADAAAF97A5}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
+++ b/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/2024_structure/github/data/sampling/dartmouth_cfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D158A-494A-3D40-A242-CA1D5EDC554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660C50D-4978-0545-AB88-991331ED38CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{45584F9A-9778-5B4B-A064-AEADAAAF97A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -912,10 +912,11 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <f>9+16+0</f>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>156.77000000000001</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -944,10 +945,11 @@
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <f>9+16+4</f>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>156.77000000000001</v>
       </c>
       <c r="F15">
         <v>29</v>
@@ -976,10 +978,11 @@
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <f>9+16+10</f>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>156.77000000000001</v>
       </c>
       <c r="F16">
         <v>35</v>

--- a/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
+++ b/data/sampling/dartmouth_cfa/cfa_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/2024_structure/github/data/sampling/dartmouth_cfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660C50D-4978-0545-AB88-991331ED38CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1CBB86-487B-8C48-9008-4BB1BB62E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{45584F9A-9778-5B4B-A064-AEADAAAF97A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>core</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>top_depth</t>
+  </si>
+  <si>
+    <t>stick_top</t>
   </si>
 </sst>
 </file>
@@ -477,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAB7143-0F24-E840-9A6E-44405D9BC6A1}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +519,11 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -548,8 +554,12 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f>E2+F2/1000</f>
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -580,8 +590,12 @@
       <c r="J3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="0">E3+F3/1000</f>
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -612,8 +626,12 @@
       <c r="J4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>129.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -644,8 +662,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>126.393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -676,8 +698,12 @@
       <c r="J6">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>126.38900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -708,8 +734,12 @@
       <c r="J7">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>126.387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -740,8 +770,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>127.69900000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -772,8 +806,12 @@
       <c r="J9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>127.688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -804,8 +842,12 @@
       <c r="J10">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>127.68600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -836,8 +878,12 @@
       <c r="J11">
         <v>-32</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>128.745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -868,8 +914,12 @@
       <c r="J12">
         <v>-65</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>128.715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -900,8 +950,12 @@
       <c r="J13">
         <v>-104</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>128.69800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -933,8 +987,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>156.79500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -966,8 +1024,12 @@
       <c r="J15">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>156.79900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -998,6 +1060,10 @@
       </c>
       <c r="J16">
         <v>62</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>156.80500000000001</v>
       </c>
     </row>
   </sheetData>
